--- a/biology/Zoologie/Heliconiinae/Heliconiinae.xlsx
+++ b/biology/Zoologie/Heliconiinae/Heliconiinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Heliconiinae sont une sous-famille de lépidoptères (papillons) de la famille des Nymphalidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce taxon a été décrit pour la première fois par le naturaliste britannique William Swainson en 1822.
-Il a actuellement le rang de sous-famille, et se compose de quatre tribus[1].
+Il a actuellement le rang de sous-famille, et se compose de quatre tribus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Heliconiinae sont largement répandus dans les régions tropicales, et seule la tribu des Argynnini est diversifiée dans l'Holarctique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Heliconiinae sont largement répandus dans les régions tropicales, et seule la tribu des Argynnini est diversifiée dans l'Holarctique.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Liste des tribus et des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tribu des Acraeini Boisduval, 1833
 Abananote Potts, 1943
